--- a/Bundle.xlsx
+++ b/Bundle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28950" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,6 +49,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -72,9 +88,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,48 +103,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,9 +117,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,43 +192,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -202,187 +202,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,17 +396,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,28 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,9 +461,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,153 +478,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
@@ -1037,6 +1037,17 @@
       </c>
       <c r="C3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bundle.xlsx
+++ b/Bundle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28950" windowHeight="8955"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -35,9 +44,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -49,48 +58,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,89 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -192,6 +170,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -202,19 +211,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,79 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,79 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,35 +405,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,26 +436,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -473,8 +462,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,153 +482,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
@@ -1022,31 +1031,42 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>11</v>
       </c>
     </row>

--- a/Bundle.xlsx
+++ b/Bundle.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="list" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -44,9 +44,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -59,6 +59,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -74,26 +81,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -102,8 +118,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,24 +149,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,9 +171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,43 +187,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,37 +211,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,25 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,109 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +402,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,17 +435,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,8 +464,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,7 +474,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,19 +497,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,148 +507,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
